--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,12 +89,6 @@
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H2">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I2">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J2">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6105093333333333</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N2">
-        <v>1.831528</v>
+        <v>2.446501</v>
       </c>
       <c r="O2">
-        <v>0.1519928013857481</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P2">
-        <v>0.1519928013857482</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q2">
-        <v>0.017996594128</v>
+        <v>0.09601211624466667</v>
       </c>
       <c r="R2">
-        <v>0.161969347152</v>
+        <v>0.864109046202</v>
       </c>
       <c r="S2">
-        <v>0.02333677921452302</v>
+        <v>0.1160903649062619</v>
       </c>
       <c r="T2">
-        <v>0.02333677921452302</v>
+        <v>0.1160903649062619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H3">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I3">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J3">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>9.999403000000001</v>
       </c>
       <c r="O3">
-        <v>0.8298192952305694</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P3">
-        <v>0.8298192952305695</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q3">
-        <v>0.09825413387800001</v>
+        <v>0.3924232376006667</v>
       </c>
       <c r="R3">
-        <v>0.8842872049020001</v>
+        <v>3.531809138406</v>
       </c>
       <c r="S3">
-        <v>0.1274093871827453</v>
+        <v>0.474487581699239</v>
       </c>
       <c r="T3">
-        <v>0.1274093871827453</v>
+        <v>0.474487581699239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H4">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I4">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J4">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07255766666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N4">
-        <v>0.217673</v>
+        <v>0.358896</v>
       </c>
       <c r="O4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q4">
-        <v>0.002138854898</v>
+        <v>0.014084753888</v>
       </c>
       <c r="R4">
-        <v>0.019249694082</v>
+        <v>0.126762784992</v>
       </c>
       <c r="S4">
-        <v>0.002773523933001772</v>
+        <v>0.01703018621427</v>
       </c>
       <c r="T4">
-        <v>0.002773523933001772</v>
+        <v>0.01703018621427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,40 +726,40 @@
         <v>0.088434</v>
       </c>
       <c r="I5">
-        <v>0.1535387136874709</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="J5">
-        <v>0.1535387136874709</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0004976666666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N5">
-        <v>0.001493</v>
+        <v>2.446501</v>
       </c>
       <c r="O5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q5">
-        <v>1.4670218E-05</v>
+        <v>0.024039318826</v>
       </c>
       <c r="R5">
-        <v>0.000132031962</v>
+        <v>0.216353869434</v>
       </c>
       <c r="S5">
-        <v>1.902335720080876E-05</v>
+        <v>0.02906646998069196</v>
       </c>
       <c r="T5">
-        <v>1.902335720080876E-05</v>
+        <v>0.02906646998069197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1625126666666667</v>
+        <v>0.029478</v>
       </c>
       <c r="H6">
-        <v>0.487538</v>
+        <v>0.088434</v>
       </c>
       <c r="I6">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="J6">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6105093333333333</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N6">
-        <v>1.831528</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O6">
-        <v>0.1519928013857481</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P6">
-        <v>0.1519928013857482</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q6">
-        <v>0.09921549978488889</v>
+        <v>0.09825413387800001</v>
       </c>
       <c r="R6">
-        <v>0.8929394980640001</v>
+        <v>0.8842872049020001</v>
       </c>
       <c r="S6">
-        <v>0.1286560221712251</v>
+        <v>0.1188012378185585</v>
       </c>
       <c r="T6">
-        <v>0.1286560221712251</v>
+        <v>0.1188012378185585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1625126666666667</v>
+        <v>0.029478</v>
       </c>
       <c r="H7">
-        <v>0.487538</v>
+        <v>0.088434</v>
       </c>
       <c r="I7">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="J7">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,60 +862,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.333134333333334</v>
+        <v>0.119632</v>
       </c>
       <c r="N7">
-        <v>9.999403000000001</v>
+        <v>0.358896</v>
       </c>
       <c r="O7">
-        <v>0.8298192952305694</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P7">
-        <v>0.8298192952305695</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q7">
-        <v>0.5416765488682223</v>
+        <v>0.003526512096</v>
       </c>
       <c r="R7">
-        <v>4.875088939814001</v>
+        <v>0.031738608864</v>
       </c>
       <c r="S7">
-        <v>0.7024099080478241</v>
+        <v>0.004263983464625774</v>
       </c>
       <c r="T7">
-        <v>0.7024099080478242</v>
+        <v>0.004263983464625775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1625126666666667</v>
+        <v>0.04655433333333334</v>
       </c>
       <c r="H8">
-        <v>0.487538</v>
+        <v>0.139663</v>
       </c>
       <c r="I8">
-        <v>0.846461286312529</v>
+        <v>0.2402601759163528</v>
       </c>
       <c r="J8">
-        <v>0.846461286312529</v>
+        <v>0.2402601759163529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,90 +924,152 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07255766666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N8">
-        <v>0.217673</v>
+        <v>2.446501</v>
       </c>
       <c r="O8">
-        <v>0.01806400396610915</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P8">
-        <v>0.01806400396610915</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q8">
-        <v>0.01179153989711111</v>
+        <v>0.03796507435144445</v>
       </c>
       <c r="R8">
-        <v>0.106123859074</v>
+        <v>0.341685669163</v>
       </c>
       <c r="S8">
-        <v>0.01529048003310738</v>
+        <v>0.045904407772049</v>
       </c>
       <c r="T8">
-        <v>0.01529048003310738</v>
+        <v>0.04590440777204902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.139663</v>
+      </c>
+      <c r="I9">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J9">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.333134333333334</v>
+      </c>
+      <c r="N9">
+        <v>9.999403000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.7809105179307759</v>
+      </c>
+      <c r="P9">
+        <v>0.780910517930776</v>
+      </c>
+      <c r="Q9">
+        <v>0.1551718467987778</v>
+      </c>
+      <c r="R9">
+        <v>1.396546621189</v>
+      </c>
+      <c r="S9">
+        <v>0.1876216984129784</v>
+      </c>
+      <c r="T9">
+        <v>0.1876216984129785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.139663</v>
+      </c>
+      <c r="I10">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J10">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.1625126666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.487538</v>
-      </c>
-      <c r="I9">
-        <v>0.846461286312529</v>
-      </c>
-      <c r="J9">
-        <v>0.846461286312529</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.0004976666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.001493</v>
-      </c>
-      <c r="O9">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="P9">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="Q9">
-        <v>8.087713711111111E-05</v>
-      </c>
-      <c r="R9">
-        <v>0.000727894234</v>
-      </c>
-      <c r="S9">
-        <v>0.0001048760603723444</v>
-      </c>
-      <c r="T9">
-        <v>0.0001048760603723444</v>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.119632</v>
+      </c>
+      <c r="N10">
+        <v>0.358896</v>
+      </c>
+      <c r="O10">
+        <v>0.02802823941022116</v>
+      </c>
+      <c r="P10">
+        <v>0.02802823941022117</v>
+      </c>
+      <c r="Q10">
+        <v>0.005569388005333334</v>
+      </c>
+      <c r="R10">
+        <v>0.050124492048</v>
+      </c>
+      <c r="S10">
+        <v>0.006734069731325391</v>
+      </c>
+      <c r="T10">
+        <v>0.006734069731325392</v>
       </c>
     </row>
   </sheetData>
